--- a/AVN-6500-01_Shelf Inventory_2025-06-20 23-40-22.xlsx
+++ b/AVN-6500-01_Shelf Inventory_2025-06-20 23-40-22.xlsx
@@ -476,14 +476,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="73" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="55" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1147,8 +1147,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2" customWidth="1" min="1" max="1"/>
-    <col width="2" customWidth="1" min="2" max="2"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="3" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
@@ -1177,47 +1177,47 @@
     <row r="2">
       <c r="C2" s="5" t="inlineStr">
         <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
           <t>02</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>07</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>08</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>09</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
@@ -1372,14 +1372,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="73" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="55" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2043,8 +2043,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2" customWidth="1" min="1" max="1"/>
-    <col width="2" customWidth="1" min="2" max="2"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="3" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
@@ -2073,47 +2073,47 @@
     <row r="2">
       <c r="C2" s="5" t="inlineStr">
         <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
           <t>02</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>07</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>08</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>09</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
         </is>
       </c>
       <c r="M2" s="1" t="inlineStr">
